--- a/Measured PV data/Almeria_Spain/Meas_PV_power_almeria.xlsx
+++ b/Measured PV data/Almeria_Spain/Meas_PV_power_almeria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Location name</t>
   </si>
@@ -79,19 +79,22 @@
     <t>Module model (facultative info)</t>
   </si>
   <si>
-    <t>Measurement resolution</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Raw PV power measurements</t>
-  </si>
-  <si>
-    <t>Normalized PV power [0-1]</t>
-  </si>
-  <si>
     <t>Normalized PV power corrected</t>
+  </si>
+  <si>
+    <t>Measurement resolution (should be below 1min)</t>
+  </si>
+  <si>
+    <t>Inverter nominal capacity (kW), inlet/outlet</t>
+  </si>
+  <si>
+    <t>Raw PV power measurements (facultative)</t>
+  </si>
+  <si>
+    <t>Normalized PV power [0-1] (faculative)</t>
   </si>
 </sst>
 </file>
@@ -162,13 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,13 +305,41 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>--&gt; one with the raw measured PV data aggregated on the hourly level (faculative)</a:t>
+            <a:t>--&gt; one with the raw measured PV data aggregated on the hourly level (faculative, for documentation purposes)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>--&gt; one with the normalized PV data: all values must be between 0 and 1 (facultative)</a:t>
+            <a:t>--&gt; one with the normalized PV data: all values must be between 0 and 1 (facultative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for documentation purposes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -382,7 +414,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -796,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -809,15 +841,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -872,40 +904,46 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -920,31 +958,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" customWidth="1"/>
     <col min="4" max="4" width="28.36328125" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Measured PV data/Almeria_Spain/Meas_PV_power_almeria.xlsx
+++ b/Measured PV data/Almeria_Spain/Meas_PV_power_almeria.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="3" r:id="rId1"/>
     <sheet name="PV_plant_setup" sheetId="1" r:id="rId2"/>
-    <sheet name="Meas_power_2023" sheetId="2" r:id="rId3"/>
+    <sheet name="2023" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -323,19 +323,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for documentation purposes</a:t>
+            <a:t>, for documentation purposes</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -828,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +832,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
